--- a/Module_20200717_0_PaperHand/Module_20200717_0_PaperHand.xlsx
+++ b/Module_20200717_0_PaperHand/Module_20200717_0_PaperHand.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a59c1bdb761853cd/NAER/EELAB/EELAB/Module_20200717_0_PaperHand/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="11_F25DC773A252ABDACC1048E0995B61245BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{83B4902A-3E44-46D3-8AA6-18854120F08E}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="11_F25DC773A252ABDACC1048E0995B61245BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{547F1C5E-F331-40FA-B3E1-41D43DE8D743}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="History" sheetId="2" r:id="rId1"/>
+    <sheet name="System Diagram" sheetId="4" r:id="rId2"/>
+    <sheet name="Servos" sheetId="1" r:id="rId3"/>
+    <sheet name="Arduino Pins" sheetId="3" r:id="rId4"/>
+    <sheet name="ServoAdapter" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,9 +28,370 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+  <si>
+    <t>AVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNO R3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Componet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function
+Selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI MOSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI MISO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI SCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analog 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analog 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analog 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analog 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analog 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital 19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analog 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERIAL RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERIAL TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200728_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Created this file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServoAdapter_servo_0 pulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServoAdapter_servo_1 pulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServoAdapter_servo_2 pulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServoAdapter_servo_3 pulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServoAdapter_servo_4 pulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Module_20200402_0_ServoAdapter)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,13 +406,67 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -62,8 +481,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -83,6 +517,1113 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A829BCE0-DCAA-47DA-8DCA-5B49580D0B0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="952500"/>
+          <a:ext cx="1661160" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Arduino</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4492FAF-2876-4DAC-B07B-AFD1CC863856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4168140" y="952500"/>
+          <a:ext cx="1905000" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Servo Adapter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="800"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Module_20200402_0_ServoAdapter)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9276579B-4F97-4142-8521-7F583AF8FBCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7917180" y="472440"/>
+          <a:ext cx="800100" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Servo 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F3324D-8A5E-4921-BF4C-B623B76507E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7932420" y="1104900"/>
+          <a:ext cx="800100" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Servo 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B862667-47C8-4A8A-B9EF-5A9987C0F000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7932420" y="1699260"/>
+          <a:ext cx="800100" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Servo 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7863059-8785-408A-A979-1F554D43044F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7940040" y="2293620"/>
+          <a:ext cx="800100" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Servo 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA514C42-D3BB-4631-946E-8A9C07B2C973}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7917180" y="2872740"/>
+          <a:ext cx="800100" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Servo 4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="336182" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文字方塊 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AE56C9-83E6-4182-84D9-1E9D0A4DBDE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4884420" y="358140"/>
+          <a:ext cx="336182" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>6V</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="481478" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文字方塊 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1875A7D7-DB8D-46B7-8A27-DD0466549E91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7932420" y="3276600"/>
+          <a:ext cx="481478" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>SG90</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="左大括弧 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A23A9113-C398-474C-A2B0-E6F67AAEBCF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6957060" y="624840"/>
+          <a:ext cx="624840" cy="2331720"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線單箭頭接點 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{701E5557-62AB-4BD5-82E0-03A13F161001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5044440" y="571500"/>
+          <a:ext cx="7620" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="816185" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="文字方塊 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF337FD-154B-4756-AE00-A62D29FA0794}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="365760"/>
+          <a:ext cx="816185" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>USB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0"/>
+            <a:t> Power</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線單箭頭接點 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156B1051-56F5-4B11-9E0E-AAAD26FBD623}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2308860" y="563880"/>
+          <a:ext cx="7620" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線單箭頭接點 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093F9448-AD5B-4939-842A-CA00B5EABFEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3352800" y="1417320"/>
+          <a:ext cx="662940" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="898772" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="文字方塊 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7F5773-EDCC-4C0D-8C74-E8C7756BA204}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="1447800"/>
+          <a:ext cx="898772" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Servo Pulses</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線單箭頭接點 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C06FCBC-AC1E-4FEC-AC6B-D5ADB603B7B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6179820" y="1531620"/>
+          <a:ext cx="662940" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="898772" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="文字方塊 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E705194-5975-4148-9A3B-7DCF33691262}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6118860" y="1600200"/>
+          <a:ext cx="898772" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Servo Pulses</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>GND</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -125,7 +1666,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9380220" cy="4671060"/>
+          <a:ext cx="9306197" cy="4801689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1085,15 +2626,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>348344</xdr:colOff>
+      <xdr:colOff>293915</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>87085</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>272487</xdr:colOff>
+      <xdr:colOff>218058</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>119744</xdr:rowOff>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1123,7 +2664,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11234058" y="4397828"/>
+          <a:off x="11179629" y="4386942"/>
           <a:ext cx="2645572" cy="2188030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1143,6 +2684,493 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>261258</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>195942</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="757451" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A505FDAA-E411-4746-9752-D381A91504A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248401" y="1371599"/>
+          <a:ext cx="757451" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Servo0</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="757451" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="文字方塊 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0F244F-4587-44EF-8FFE-DF9B89BBB3DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7402286" y="1382486"/>
+          <a:ext cx="757451" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Servo1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>206829</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="757451" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="文字方塊 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CDBE342-3071-4F62-A724-40E6C9EEF999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="3831772"/>
+          <a:ext cx="757451" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Servo2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="757451" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="文字方塊 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B15327DF-A149-46F2-9990-01AD52061A53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="3744686"/>
+          <a:ext cx="757451" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Servo3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>174172</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="757451" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="文字方塊 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E1BEA2B-370F-4CE8-A9D7-FC7B3F5BCAB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5072743" y="1382485"/>
+          <a:ext cx="757451" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Servo4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>520336</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>236219</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCBD6E6A-BD6E-462A-B7CF-C70F7C6C626B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1617616" y="861060"/>
+          <a:ext cx="7396843" cy="2674620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2356735" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文字方塊 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A25388-59A1-49D3-8CE7-5AB89F221B21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1729740" y="3246120"/>
+          <a:ext cx="2356735" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Module_20200402_0_ServoAdapter)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1408,11 +3436,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D6C323-9181-4547-ABEA-186B00B987CE}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C071E434-4ADB-4A32-AA10-9960DFC54CA9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1421,4 +3478,460 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1E9239-F21C-41BC-907D-3760747576D1}">
+  <dimension ref="A5:H25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF93615-EE5A-4FC2-94A2-9CD18CCF4AAF}">
+  <dimension ref="H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>